--- a/BackTest/2019-10-30 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-30 BackTest WAVES.xlsx
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1956,14 +1956,20 @@
         <v>991.65</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>976</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1997,20 @@
         <v>990.15</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>976</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2026,14 +2038,20 @@
         <v>988.8</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>978</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2086,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2125,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2164,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2203,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2242,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2281,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2320,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2359,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2398,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2437,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2476,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2515,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2488,7 +2554,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2593,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2632,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2671,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2628,7 +2710,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2663,7 +2749,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2698,7 +2788,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2827,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2866,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2803,7 +2905,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +2944,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2873,7 +2983,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2908,7 +3022,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2943,7 +3061,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3100,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +3139,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3178,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3217,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3118,7 +3256,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3295,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3188,7 +3334,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3223,7 +3373,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3258,7 +3412,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3451,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3490,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3363,7 +3529,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3568,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3607,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3646,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3503,7 +3685,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3538,7 +3724,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3763,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3802,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3841,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3880,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3919,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3958,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3997,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3818,7 +4036,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4075,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3888,7 +4114,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3923,7 +4153,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +4192,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4231,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4028,7 +4270,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4309,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4098,7 +4348,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4133,7 +4387,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4168,7 +4426,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4465,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4504,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4273,7 +4543,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4582,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4621,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4660,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4699,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4738,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4777,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4816,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4855,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4894,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4933,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4972,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +5011,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5050,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +5089,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +5128,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +5167,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5206,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5245,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5284,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5323,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5362,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5401,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5440,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5479,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5518,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5557,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5596,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5635,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5674,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5713,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5752,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5791,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5830,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5869,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5908,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5947,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5986,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6025,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +6064,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +6103,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +6142,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +6181,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6220,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6259,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6298,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6337,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6376,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6415,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6454,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6493,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6532,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6571,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6610,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6649,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6688,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6727,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6766,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6805,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6844,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6883,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6922,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6961,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +7000,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +7039,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +7078,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +7117,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +7156,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +7195,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +7234,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7273,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7312,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7351,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7390,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7429,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7468,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7507,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7546,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7585,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7624,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7663,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7702,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7741,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7780,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7819,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7858,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7897,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7936,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7975,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +8014,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +8053,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8092,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +8131,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8170,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +8209,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +8248,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8287,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8326,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8365,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7731,18 +8397,16 @@
         <v>955.4</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>951</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7772,14 +8436,12 @@
         <v>954.95</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>952</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -7813,14 +8475,12 @@
         <v>954.5</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>952</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -7854,14 +8514,12 @@
         <v>954.2</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>954</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -7895,14 +8553,12 @@
         <v>953.9</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>954</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -7936,14 +8592,12 @@
         <v>953.75</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>957</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -7977,14 +8631,12 @@
         <v>953.6</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>957</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8018,14 +8670,12 @@
         <v>953.55</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>958</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8059,14 +8709,12 @@
         <v>953.5</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>957</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8100,14 +8748,12 @@
         <v>953.45</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>957</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8141,14 +8787,12 @@
         <v>953.5</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>957</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8182,14 +8826,12 @@
         <v>953.45</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>957</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8223,14 +8865,12 @@
         <v>953.4</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>957</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8264,14 +8904,12 @@
         <v>953.5</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>956</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8305,14 +8943,12 @@
         <v>953.65</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>957</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8346,14 +8982,12 @@
         <v>954.15</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>958</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8387,14 +9021,12 @@
         <v>954.75</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>957</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8428,14 +9060,12 @@
         <v>955.1</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>958</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8469,14 +9099,12 @@
         <v>955.75</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>959</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8510,14 +9138,12 @@
         <v>956.4</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>963</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8551,14 +9177,12 @@
         <v>956.95</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>962</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -11283,14 +11907,12 @@
         <v>956.75</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>952</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -11324,14 +11946,12 @@
         <v>956.4</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>952</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11365,14 +11985,12 @@
         <v>955.85</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>951</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11406,14 +12024,12 @@
         <v>955.35</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>950</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11447,14 +12063,12 @@
         <v>954.85</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>950</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11488,14 +12102,12 @@
         <v>954.5</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>950</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11529,14 +12141,12 @@
         <v>954.25</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>950</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11570,14 +12180,12 @@
         <v>953.75</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>947</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11611,14 +12219,12 @@
         <v>953.25</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>947</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11652,14 +12258,12 @@
         <v>952.65</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>949</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -11693,14 +12297,12 @@
         <v>952.3</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>949</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -11734,14 +12336,12 @@
         <v>952</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>950</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -11775,14 +12375,12 @@
         <v>951.6</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>950</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -11816,14 +12414,12 @@
         <v>951.25</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>950</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -11857,14 +12453,12 @@
         <v>950.8</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>947</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -11898,14 +12492,12 @@
         <v>950.4</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>950</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -11939,14 +12531,12 @@
         <v>950</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>948</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -11980,14 +12570,12 @@
         <v>949.7</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>948</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -12021,14 +12609,12 @@
         <v>949.6</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>949</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -12062,14 +12648,12 @@
         <v>949.15</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>944</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -12103,14 +12687,12 @@
         <v>948.95</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>948</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -12144,14 +12726,12 @@
         <v>948.85</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>950</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -12185,14 +12765,12 @@
         <v>948.55</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>945</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -12226,14 +12804,12 @@
         <v>948.25</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>944</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -12267,14 +12843,12 @@
         <v>948</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>945</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -12308,14 +12882,12 @@
         <v>947.75</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>945</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -12349,14 +12921,12 @@
         <v>947.5</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>945</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -12390,14 +12960,12 @@
         <v>947.4</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>945</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12431,14 +12999,12 @@
         <v>947.25</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>944</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12472,14 +13038,12 @@
         <v>946.8</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>940</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12513,14 +13077,12 @@
         <v>946.25</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>938</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12554,14 +13116,12 @@
         <v>945.8</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>941</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12595,14 +13155,12 @@
         <v>945.3</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>940</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12636,14 +13194,12 @@
         <v>945</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>944</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12677,14 +13233,12 @@
         <v>944.8</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>943</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12718,14 +13272,12 @@
         <v>944.35</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>941</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12759,14 +13311,12 @@
         <v>943.9</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>939</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12800,14 +13350,12 @@
         <v>943.35</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>937</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12841,14 +13389,12 @@
         <v>942.8</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>938</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12882,14 +13428,12 @@
         <v>942.55</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>939</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12923,14 +13467,12 @@
         <v>942.1</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>939</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -12964,14 +13506,12 @@
         <v>941.4</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>936</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -13005,14 +13545,12 @@
         <v>941</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>937</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -13046,14 +13584,12 @@
         <v>940.7</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>938</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -13087,14 +13623,12 @@
         <v>940.3</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>937</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -13128,14 +13662,12 @@
         <v>939.9</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>937</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -13169,14 +13701,12 @@
         <v>939.7</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>941</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -13210,14 +13740,12 @@
         <v>939.6</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>943</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -13251,14 +13779,12 @@
         <v>939.45</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>941</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -13292,14 +13818,12 @@
         <v>939.6</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>943</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -13333,14 +13857,12 @@
         <v>939.75</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>941</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13374,14 +13896,12 @@
         <v>939.75</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>941</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13415,14 +13935,12 @@
         <v>939.85</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>942</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13456,14 +13974,12 @@
         <v>939.75</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>942</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13497,14 +14013,12 @@
         <v>939.95</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>947</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13538,14 +14052,12 @@
         <v>940.1</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>944</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13579,14 +14091,12 @@
         <v>940.2</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>941</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13620,14 +14130,12 @@
         <v>940.45</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>942</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13661,14 +14169,12 @@
         <v>941</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>949</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13702,14 +14208,12 @@
         <v>941.5</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>949</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13743,14 +14247,12 @@
         <v>941.95</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>948</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13784,14 +14286,12 @@
         <v>942.35</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>944</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13825,14 +14325,12 @@
         <v>942.7</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>944</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13866,14 +14364,12 @@
         <v>943.1</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>946</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13907,14 +14403,12 @@
         <v>943.45</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>944</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13948,14 +14442,12 @@
         <v>943.95</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>947</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13989,14 +14481,12 @@
         <v>944.15</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>945</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -14030,14 +14520,12 @@
         <v>944.25</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>945</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -14071,14 +14559,12 @@
         <v>944.2</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>940</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -14112,14 +14598,12 @@
         <v>944.35</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>946</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -14153,14 +14637,12 @@
         <v>944.6</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>946</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -14194,14 +14676,12 @@
         <v>944.75</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>944</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -14235,14 +14715,12 @@
         <v>944.85</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>944</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -14276,14 +14754,12 @@
         <v>944.8</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>941</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -14317,14 +14793,12 @@
         <v>944.5</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>941</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -14358,14 +14832,12 @@
         <v>944.55</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>945</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14399,14 +14871,12 @@
         <v>944.75</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>945</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14440,14 +14910,12 @@
         <v>945.1</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>949</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14481,14 +14949,12 @@
         <v>945.1</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>949</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14522,14 +14988,12 @@
         <v>945.15</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>950</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14563,14 +15027,12 @@
         <v>945.4</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>953</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14604,14 +15066,12 @@
         <v>945.85</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>953</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14645,14 +15105,12 @@
         <v>946.45</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>956</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14686,14 +15144,12 @@
         <v>947</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>957</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14727,14 +15183,12 @@
         <v>947.65</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>957</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14768,14 +15222,12 @@
         <v>948.25</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>959</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14809,14 +15261,12 @@
         <v>949</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>960</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14850,14 +15300,12 @@
         <v>949.7</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>959</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14891,14 +15339,12 @@
         <v>950.8</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>962</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -14932,14 +15378,12 @@
         <v>951.65</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>963</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14973,14 +15417,12 @@
         <v>952.35</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>960</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -15014,14 +15456,12 @@
         <v>953.2</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>961</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -15055,14 +15495,12 @@
         <v>953.95</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>959</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -15096,14 +15534,12 @@
         <v>954.7</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>956</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -15215,14 +15651,12 @@
         <v>957.35</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>966</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -15256,14 +15690,12 @@
         <v>958.5</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>972</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -16116,14 +16548,12 @@
         <v>963.5</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>961</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
@@ -16157,14 +16587,12 @@
         <v>963.55</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>966</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
@@ -17797,14 +18225,12 @@
         <v>958.25</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>948</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -17838,14 +18264,12 @@
         <v>957.35</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>947</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
@@ -17879,14 +18303,12 @@
         <v>956.4</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>949</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
@@ -17920,14 +18342,12 @@
         <v>955.5</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>950</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
@@ -17961,14 +18381,12 @@
         <v>954.7</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>950</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
@@ -18002,14 +18420,12 @@
         <v>954.05</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>953</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
@@ -18043,14 +18459,12 @@
         <v>953.4</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>952</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
@@ -18084,14 +18498,12 @@
         <v>952.75</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>952</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
@@ -18125,14 +18537,12 @@
         <v>952.25</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>953</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
@@ -18166,14 +18576,12 @@
         <v>951.7</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>950</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
@@ -18207,14 +18615,12 @@
         <v>951.1</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>949</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
@@ -18248,14 +18654,12 @@
         <v>950.5</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>948</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
@@ -18289,14 +18693,12 @@
         <v>950.15</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>948</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
@@ -18330,14 +18732,12 @@
         <v>949.75</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>951</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
@@ -18371,14 +18771,12 @@
         <v>949.6</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>949</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
@@ -18412,14 +18810,12 @@
         <v>949.55</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>949</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
@@ -18453,14 +18849,12 @@
         <v>949.7</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>952</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-30 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3563.655900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-3563.655900000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>945</v>
+      </c>
+      <c r="J3" t="n">
+        <v>945</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-3563.655900000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>945</v>
+      </c>
+      <c r="J4" t="n">
+        <v>945</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-3563.655900000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>945</v>
+      </c>
+      <c r="J5" t="n">
+        <v>945</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-3563.655900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>945</v>
+      </c>
+      <c r="J6" t="n">
+        <v>945</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-5909.405700000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>945</v>
+      </c>
+      <c r="J7" t="n">
+        <v>945</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-5909.405700000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>944</v>
+      </c>
+      <c r="J8" t="n">
+        <v>945</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-5909.405700000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>944</v>
+      </c>
+      <c r="J9" t="n">
+        <v>944</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-5059.405700000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>944</v>
+      </c>
+      <c r="J10" t="n">
+        <v>944</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-5059.405700000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>945</v>
+      </c>
+      <c r="J11" t="n">
+        <v>944</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,19 @@
         <v>-5059.405700000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>945</v>
+      </c>
+      <c r="J12" t="n">
+        <v>944</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,19 @@
         <v>-4484.405700000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>945</v>
+      </c>
+      <c r="J13" t="n">
+        <v>944</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,19 @@
         <v>-4642.404700000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>949</v>
+      </c>
+      <c r="J14" t="n">
+        <v>944</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +964,19 @@
         <v>-4513.486900000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>947</v>
+      </c>
+      <c r="J15" t="n">
+        <v>944</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,19 @@
         <v>-4513.486900000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>949</v>
+      </c>
+      <c r="J16" t="n">
+        <v>944</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,19 @@
         <v>-4513.486900000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>949</v>
+      </c>
+      <c r="J17" t="n">
+        <v>944</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1087,19 @@
         <v>-4400.018500000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>949</v>
+      </c>
+      <c r="J18" t="n">
+        <v>944</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,19 @@
         <v>-666.226200000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>950</v>
+      </c>
+      <c r="J19" t="n">
+        <v>944</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1169,19 @@
         <v>424.7607999999991</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>951</v>
+      </c>
+      <c r="J20" t="n">
+        <v>944</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1210,19 @@
         <v>2946.767599999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>952</v>
+      </c>
+      <c r="J21" t="n">
+        <v>944</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1251,19 @@
         <v>742.2453999999993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>953</v>
+      </c>
+      <c r="J22" t="n">
+        <v>944</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1292,19 @@
         <v>784.3412999999994</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>950</v>
+      </c>
+      <c r="J23" t="n">
+        <v>944</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1333,19 @@
         <v>784.3412999999994</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>951</v>
+      </c>
+      <c r="J24" t="n">
+        <v>944</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1374,19 @@
         <v>784.3412999999994</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>951</v>
+      </c>
+      <c r="J25" t="n">
+        <v>944</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1415,19 @@
         <v>784.3412999999994</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>951</v>
+      </c>
+      <c r="J26" t="n">
+        <v>944</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1456,19 @@
         <v>1397.980099999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>951</v>
+      </c>
+      <c r="J27" t="n">
+        <v>944</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1497,19 @@
         <v>1397.980099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>952</v>
+      </c>
+      <c r="J28" t="n">
+        <v>944</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1538,19 @@
         <v>1497.980099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>952</v>
+      </c>
+      <c r="J29" t="n">
+        <v>944</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1579,19 @@
         <v>2915.277599999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>955</v>
+      </c>
+      <c r="J30" t="n">
+        <v>944</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1620,19 @@
         <v>31818.9546</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>957</v>
+      </c>
+      <c r="J31" t="n">
+        <v>944</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1661,19 @@
         <v>32218.2996</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>968</v>
+      </c>
+      <c r="J32" t="n">
+        <v>944</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1705,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>944</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1744,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>944</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1783,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>944</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1822,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>944</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1861,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>944</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>944</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1939,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>944</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1978,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>944</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2017,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>944</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2056,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>944</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2095,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>944</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2134,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>944</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2173,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>944</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2212,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>944</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2251,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>944</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2290,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>944</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2329,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>944</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2368,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>944</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2407,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>944</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2446,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>944</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2485,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>944</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2524,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>944</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2563,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>944</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>944</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2641,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>944</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2680,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>944</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2719,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>944</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2755,17 @@
         <v>136846.1698081</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>944</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2794,17 @@
         <v>131445.7982081</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>944</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2833,17 @@
         <v>135935.2993081</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>944</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2875,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>944</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>944</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,15 +2950,23 @@
         <v>169261.0733081</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>944</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>1.266186440677966</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.001059322033898</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2563,7 +2991,7 @@
         <v>146053.70355807</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +3024,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +3057,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +3090,7 @@
         <v>114229.19592005</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +3123,7 @@
         <v>65502.35802004997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +3156,7 @@
         <v>66358.42372004998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3189,7 @@
         <v>68987.80712004998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3222,7 @@
         <v>63771.84492004998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3255,7 @@
         <v>67915.64324504999</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3288,7 @@
         <v>19272.72354504999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3321,7 @@
         <v>11315.88974504999</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3354,7 @@
         <v>17249.84624504999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3387,7 @@
         <v>23941.14684504999</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3420,7 @@
         <v>13778.42254504999</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3453,7 @@
         <v>-15473.99585495001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3486,7 @@
         <v>-2364.159754950013</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3519,7 @@
         <v>-16844.81765495001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3552,7 @@
         <v>-33756.17585495001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3585,7 @@
         <v>-24944.84295495001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3618,7 @@
         <v>-42653.80565495</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3651,7 @@
         <v>-37804.20245495001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3684,7 @@
         <v>-61996.55525495001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3717,7 @@
         <v>-59939.71335495001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3750,7 @@
         <v>-69689.60125495</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3783,7 @@
         <v>-60367.41125495</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3816,7 @@
         <v>-58823.65105495</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3948,7 @@
         <v>-79222.59695495002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3981,7 @@
         <v>-95487.73365495002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -9361,11 +9789,17 @@
         <v>-194771.32694962</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>953</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9832,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9869,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9906,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9943,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9980,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10017,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10054,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10091,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10128,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10165,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10202,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10239,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10276,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10313,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10350,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10387,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10424,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10461,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10498,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10535,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10572,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10609,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10646,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10683,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10720,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10757,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10794,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10831,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10868,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10905,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10942,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10979,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11016,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11053,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11090,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11127,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11164,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11201,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11238,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11275,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11312,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11349,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11386,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11423,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11460,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11497,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11534,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11571,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11608,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11645,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11682,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11719,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11756,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11793,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11830,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11867,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11904,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11941,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11978,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12015,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12052,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12089,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12126,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12163,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12200,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12237,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12274,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12311,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12348,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12385,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12422,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12459,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12496,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12533,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12570,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12607,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12644,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12681,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12718,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12755,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12792,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12829,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12866,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12903,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12940,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12977,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +13014,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +13051,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +13088,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +13125,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +13162,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +13199,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13236,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13273,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13310,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +13343,17 @@
         <v>-239075.29694962</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>946</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +13382,17 @@
         <v>-239075.29694962</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>950</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13425,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13462,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13499,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13532,17 @@
         <v>-240245.48524962</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>950</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13575,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13612,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13645,17 @@
         <v>-242742.59340226</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>942</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13688,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13725,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13762,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13799,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13832,17 @@
         <v>-239517.77440226</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>950</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13875,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13908,17 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>944</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13947,17 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>945</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13986,17 @@
         <v>-239495.89800226</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>945</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,15 +14025,13 @@
         <v>-240114.02810226</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13236,9 +14136,11 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>940</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13273,9 +14175,11 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>941</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13310,9 +14214,11 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>941</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13347,7 +14253,7 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>944</v>
@@ -13386,7 +14292,7 @@
         <v>-237035.53290226</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>944</v>
@@ -13425,7 +14331,7 @@
         <v>-237525.35810226</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>941</v>
@@ -13464,9 +14370,11 @@
         <v>-238698.9450022599</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>940</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13501,7 +14409,7 @@
         <v>-239070.26760226</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>938</v>
@@ -13540,7 +14448,7 @@
         <v>-238808.79860226</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>937</v>
@@ -13579,7 +14487,7 @@
         <v>-238157.45630226</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>938</v>
@@ -13618,7 +14526,7 @@
         <v>-238157.45630226</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>939</v>
@@ -13657,7 +14565,7 @@
         <v>-243860.21440226</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>939</v>
@@ -13696,7 +14604,7 @@
         <v>-243036.02460226</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>933</v>
@@ -13735,7 +14643,7 @@
         <v>-250016.74590226</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>938</v>
@@ -13774,7 +14682,7 @@
         <v>-252672.69030226</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>937</v>
@@ -13813,7 +14721,7 @@
         <v>-244033.19070226</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>934</v>
@@ -13852,7 +14760,7 @@
         <v>-242030.25980226</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>940</v>
@@ -13891,7 +14799,7 @@
         <v>-242003.35800226</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>941</v>
@@ -13930,7 +14838,7 @@
         <v>-242015.35800226</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>943</v>
@@ -13969,7 +14877,7 @@
         <v>-242003.35800226</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>941</v>
@@ -14008,7 +14916,7 @@
         <v>-243035.41630226</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>943</v>
@@ -14047,7 +14955,7 @@
         <v>-242613.47980226</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>941</v>
@@ -14086,7 +14994,7 @@
         <v>-242613.47980226</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>947</v>
@@ -14125,7 +15033,7 @@
         <v>-242614.47980226</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>947</v>
@@ -14164,7 +15072,7 @@
         <v>-241964.90373612</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>942</v>
@@ -14203,7 +15111,7 @@
         <v>-241964.90373612</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>944</v>
@@ -14242,7 +15150,7 @@
         <v>-241545.65613612</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>944</v>
@@ -14281,7 +15189,7 @@
         <v>-241546.65613612</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>948</v>
@@ -14320,7 +15228,7 @@
         <v>-241545.65613612</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>942</v>
@@ -14359,7 +15267,7 @@
         <v>-241611.65613612</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>949</v>
@@ -14398,7 +15306,7 @@
         <v>-241418.17090406</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>945</v>
@@ -14437,7 +15345,7 @@
         <v>-241444.29740406</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>948</v>
@@ -14476,9 +15384,11 @@
         <v>-239736.47729824</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>944</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14513,7 +15423,7 @@
         <v>-239711.88409824</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>945</v>
@@ -14552,9 +15462,11 @@
         <v>-249630.33739824</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>946</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14589,9 +15501,11 @@
         <v>-249524.92721995</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>933</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14626,9 +15540,11 @@
         <v>-253017.88901995</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>949</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14700,9 +15616,11 @@
         <v>-260214.00783636</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>943</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14737,9 +15655,11 @@
         <v>-260614.00783636</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>940</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14774,9 +15694,11 @@
         <v>-260603.43701184</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>937</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14811,9 +15733,11 @@
         <v>-262121.43701184</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>946</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14848,9 +15772,11 @@
         <v>-262121.43701184</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>944</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14885,9 +15811,11 @@
         <v>-262162.88561184</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>944</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14922,7 +15850,7 @@
         <v>-262162.88561184</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>941</v>
@@ -14961,7 +15889,7 @@
         <v>-262082.41671184</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>941</v>
@@ -15000,7 +15928,7 @@
         <v>-262082.41671184</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>945</v>
@@ -15039,7 +15967,7 @@
         <v>-262084.41671184</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>945</v>
@@ -15078,7 +16006,7 @@
         <v>-262120.41671184</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>943</v>
@@ -15117,9 +16045,11 @@
         <v>-262081.76341184</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>942</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15154,9 +16084,11 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>950</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15191,9 +16123,11 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>954</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15228,9 +16162,11 @@
         <v>-259662.40481184</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>954</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15302,9 +16238,11 @@
         <v>-258065.60311184</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>959</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -18077,9 +19015,11 @@
         <v>-290101.7061767899</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>949</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18151,9 +19091,11 @@
         <v>-290684.50657679</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>947</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18188,9 +19130,11 @@
         <v>-289051.41137679</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>947</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18225,9 +19169,11 @@
         <v>-290603.65007679</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>953</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18262,9 +19208,11 @@
         <v>-290559.63907679</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>947</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18299,9 +19247,11 @@
         <v>-289671.58757679</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>949</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18336,9 +19286,11 @@
         <v>-289991.79277679</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>950</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18373,9 +19325,11 @@
         <v>-289966.79277679</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>946</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18410,9 +19364,11 @@
         <v>-290071.83479359</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>953</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18447,9 +19403,11 @@
         <v>-290492.33422363</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>952</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18484,9 +19442,11 @@
         <v>-289070.63542363</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>951</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18521,9 +19481,11 @@
         <v>-289950.40622363</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>953</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18558,9 +19520,11 @@
         <v>-289950.40622363</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>949</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18595,9 +19559,11 @@
         <v>-289967.07342363</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>949</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18632,9 +19598,11 @@
         <v>-289967.07342363</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>948</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18669,9 +19637,11 @@
         <v>-289967.07342363</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>948</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18706,9 +19676,11 @@
         <v>-289967.07342363</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>948</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18743,7 +19715,7 @@
         <v>-289967.07342363</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>948</v>
@@ -18782,7 +19754,7 @@
         <v>-289924.58842363</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>948</v>
@@ -18821,9 +19793,11 @@
         <v>-289926.6978236301</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>952</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18858,9 +19832,11 @@
         <v>-289926.6978236301</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>950</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18895,7 +19871,7 @@
         <v>-289448.1271236301</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>950</v>
@@ -18934,9 +19910,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>956</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18971,9 +19949,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>954</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -19008,9 +19988,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>954</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19045,9 +20027,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>954</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19082,9 +20066,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>954</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19119,9 +20105,11 @@
         <v>-289491.2515236301</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>954</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19156,9 +20144,11 @@
         <v>-289472.2515236301</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>954</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19171,6 +20161,6 @@
       <c r="M547" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest WAVES.xlsx
+++ b/BackTest/2019-10-30 BackTest WAVES.xlsx
@@ -2266,7 +2266,7 @@
         <v>125566.93945548</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>144516.1432081</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>131912.0451081</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>136846.1698081</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>131445.7982081</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>135935.2993081</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>146122.8963081</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>169261.0733081</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>118356.33742005</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>114229.19592005</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>65502.35802004997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>66358.42372004998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -13255,11 +13255,17 @@
         <v>-234747.44400226</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>941</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13294,17 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>941</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13333,17 @@
         <v>-234698.01900226</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>944</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13372,17 @@
         <v>-237035.53290226</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>944</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13411,17 @@
         <v>-237525.35810226</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>941</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13450,17 @@
         <v>-238698.9450022599</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>940</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13458,10 +13494,12 @@
       <c r="I396" t="n">
         <v>938</v>
       </c>
-      <c r="J396" t="n">
-        <v>938</v>
-      </c>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13495,12 +13533,10 @@
       <c r="I397" t="n">
         <v>937</v>
       </c>
-      <c r="J397" t="n">
-        <v>938</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13536,12 +13572,10 @@
       <c r="I398" t="n">
         <v>938</v>
       </c>
-      <c r="J398" t="n">
-        <v>938</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L398" t="n">
@@ -13577,10 +13611,12 @@
       <c r="I399" t="n">
         <v>939</v>
       </c>
-      <c r="J399" t="n">
-        <v>939</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13614,12 +13650,10 @@
       <c r="I400" t="n">
         <v>939</v>
       </c>
-      <c r="J400" t="n">
-        <v>939</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13655,9 +13689,7 @@
       <c r="I401" t="n">
         <v>933</v>
       </c>
-      <c r="J401" t="n">
-        <v>939</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13696,9 +13728,7 @@
       <c r="I402" t="n">
         <v>938</v>
       </c>
-      <c r="J402" t="n">
-        <v>939</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13737,9 +13767,7 @@
       <c r="I403" t="n">
         <v>937</v>
       </c>
-      <c r="J403" t="n">
-        <v>939</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,9 +13806,7 @@
       <c r="I404" t="n">
         <v>934</v>
       </c>
-      <c r="J404" t="n">
-        <v>939</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,9 +13845,7 @@
       <c r="I405" t="n">
         <v>940</v>
       </c>
-      <c r="J405" t="n">
-        <v>939</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,9 +13884,7 @@
       <c r="I406" t="n">
         <v>941</v>
       </c>
-      <c r="J406" t="n">
-        <v>939</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13901,9 +13923,7 @@
       <c r="I407" t="n">
         <v>943</v>
       </c>
-      <c r="J407" t="n">
-        <v>939</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,9 +13962,7 @@
       <c r="I408" t="n">
         <v>941</v>
       </c>
-      <c r="J408" t="n">
-        <v>939</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13978,12 +13996,12 @@
         <v>-243035.41630226</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>943</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14022,9 +14040,7 @@
       <c r="I410" t="n">
         <v>941</v>
       </c>
-      <c r="J410" t="n">
-        <v>939</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14063,9 +14079,7 @@
       <c r="I411" t="n">
         <v>947</v>
       </c>
-      <c r="J411" t="n">
-        <v>939</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,9 +14118,7 @@
       <c r="I412" t="n">
         <v>947</v>
       </c>
-      <c r="J412" t="n">
-        <v>939</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14145,9 +14157,7 @@
       <c r="I413" t="n">
         <v>942</v>
       </c>
-      <c r="J413" t="n">
-        <v>939</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14186,9 +14196,7 @@
       <c r="I414" t="n">
         <v>944</v>
       </c>
-      <c r="J414" t="n">
-        <v>939</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14227,9 +14235,7 @@
       <c r="I415" t="n">
         <v>944</v>
       </c>
-      <c r="J415" t="n">
-        <v>939</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,9 +14274,7 @@
       <c r="I416" t="n">
         <v>948</v>
       </c>
-      <c r="J416" t="n">
-        <v>939</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,9 +14313,7 @@
       <c r="I417" t="n">
         <v>942</v>
       </c>
-      <c r="J417" t="n">
-        <v>939</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,9 +14352,7 @@
       <c r="I418" t="n">
         <v>949</v>
       </c>
-      <c r="J418" t="n">
-        <v>939</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14386,12 +14386,12 @@
         <v>-241418.17090406</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>945</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14430,9 +14430,7 @@
       <c r="I420" t="n">
         <v>948</v>
       </c>
-      <c r="J420" t="n">
-        <v>939</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14471,9 +14469,7 @@
       <c r="I421" t="n">
         <v>944</v>
       </c>
-      <c r="J421" t="n">
-        <v>939</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,14 +14503,10 @@
         <v>-239711.88409824</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>945</v>
-      </c>
-      <c r="J422" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14553,9 +14545,7 @@
       <c r="I423" t="n">
         <v>946</v>
       </c>
-      <c r="J423" t="n">
-        <v>939</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14592,9 +14582,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>939</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14631,9 +14619,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>939</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14670,9 +14656,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>939</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,9 +14693,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>939</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,9 +14730,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>939</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14787,9 +14767,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>939</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14823,14 +14801,10 @@
         <v>-262121.43701184</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>946</v>
-      </c>
-      <c r="J430" t="n">
-        <v>939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14867,9 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>939</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,9 +14878,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>939</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,9 +14915,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>939</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14986,9 +14954,7 @@
       <c r="I434" t="n">
         <v>941</v>
       </c>
-      <c r="J434" t="n">
-        <v>939</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14993,7 @@
       <c r="I435" t="n">
         <v>945</v>
       </c>
-      <c r="J435" t="n">
-        <v>939</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15068,9 +15032,7 @@
       <c r="I436" t="n">
         <v>945</v>
       </c>
-      <c r="J436" t="n">
-        <v>939</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,9 +15071,7 @@
       <c r="I437" t="n">
         <v>943</v>
       </c>
-      <c r="J437" t="n">
-        <v>939</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,9 +15110,7 @@
       <c r="I438" t="n">
         <v>942</v>
       </c>
-      <c r="J438" t="n">
-        <v>939</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15186,12 +15144,12 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>950</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15225,12 +15183,12 @@
         <v>-261972.93341184</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>954</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,9 +15225,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>939</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,9 +15262,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>939</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,9 +15299,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>939</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15384,9 +15336,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>939</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15423,9 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>939</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,9 +15410,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>939</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15501,9 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>939</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15540,9 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>939</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15579,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>939</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>939</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>939</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15696,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>939</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>939</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15774,9 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>939</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15813,9 +15743,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>939</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15852,9 +15780,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>939</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15891,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>939</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15930,9 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>939</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,9 +15891,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>939</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,9 +15928,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>939</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16047,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>939</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,9 +16002,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>939</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16125,9 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>939</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16164,9 +16076,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>939</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16203,9 +16113,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>939</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,9 +16150,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>939</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16281,9 +16187,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>939</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16320,9 +16224,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>939</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16359,9 +16261,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>939</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16398,9 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>939</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16437,9 +16335,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>939</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,9 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>939</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16515,9 +16409,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>939</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16554,9 +16446,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>939</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16593,9 +16483,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>939</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16632,9 +16520,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>939</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,9 +16557,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>939</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>939</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,9 +16631,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>939</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,9 +16668,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>939</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,9 +16705,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>939</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16866,9 +16742,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>939</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,9 +16779,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>939</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16944,9 +16816,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>939</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16983,9 +16853,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>939</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17022,9 +16890,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>939</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,9 +16927,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>939</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17100,9 +16964,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>939</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>939</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17178,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>939</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17217,9 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>939</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,9 +17112,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>939</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,9 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>939</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17334,9 +17186,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>939</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17373,9 +17223,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>939</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17412,9 +17260,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>939</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17451,9 +17297,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>939</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17490,9 +17334,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>939</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17529,9 +17371,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>939</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,9 +17408,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>939</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17607,9 +17445,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>939</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17646,9 +17482,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>939</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17685,9 +17519,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>939</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17724,9 +17556,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>939</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17763,9 +17593,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>939</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17802,9 +17630,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>939</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17841,9 +17667,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>939</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17880,9 +17704,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>939</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,9 +17741,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>939</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17958,9 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>939</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17997,9 +17815,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>939</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18036,9 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>939</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,12 +17886,12 @@
         <v>-288672.9892767899</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>959</v>
+      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18111,12 +17925,12 @@
         <v>-288632.1369767899</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>939</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>953</v>
+      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,9 +17969,7 @@
       <c r="I515" t="n">
         <v>959</v>
       </c>
-      <c r="J515" t="n">
-        <v>939</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18196,9 +18008,7 @@
       <c r="I516" t="n">
         <v>952</v>
       </c>
-      <c r="J516" t="n">
-        <v>939</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18237,9 +18047,7 @@
       <c r="I517" t="n">
         <v>947</v>
       </c>
-      <c r="J517" t="n">
-        <v>939</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18278,9 +18086,7 @@
       <c r="I518" t="n">
         <v>949</v>
       </c>
-      <c r="J518" t="n">
-        <v>939</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,9 +18125,7 @@
       <c r="I519" t="n">
         <v>949</v>
       </c>
-      <c r="J519" t="n">
-        <v>939</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18360,9 +18164,7 @@
       <c r="I520" t="n">
         <v>947</v>
       </c>
-      <c r="J520" t="n">
-        <v>939</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18401,9 +18203,7 @@
       <c r="I521" t="n">
         <v>947</v>
       </c>
-      <c r="J521" t="n">
-        <v>939</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18442,9 +18242,7 @@
       <c r="I522" t="n">
         <v>953</v>
       </c>
-      <c r="J522" t="n">
-        <v>939</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,9 +18281,7 @@
       <c r="I523" t="n">
         <v>947</v>
       </c>
-      <c r="J523" t="n">
-        <v>939</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18524,9 +18320,7 @@
       <c r="I524" t="n">
         <v>949</v>
       </c>
-      <c r="J524" t="n">
-        <v>939</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18565,9 +18359,7 @@
       <c r="I525" t="n">
         <v>950</v>
       </c>
-      <c r="J525" t="n">
-        <v>939</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18606,9 +18398,7 @@
       <c r="I526" t="n">
         <v>946</v>
       </c>
-      <c r="J526" t="n">
-        <v>939</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18647,9 +18437,7 @@
       <c r="I527" t="n">
         <v>953</v>
       </c>
-      <c r="J527" t="n">
-        <v>939</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18476,7 @@
       <c r="I528" t="n">
         <v>952</v>
       </c>
-      <c r="J528" t="n">
-        <v>939</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,9 +18515,7 @@
       <c r="I529" t="n">
         <v>951</v>
       </c>
-      <c r="J529" t="n">
-        <v>939</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18770,9 +18554,7 @@
       <c r="I530" t="n">
         <v>953</v>
       </c>
-      <c r="J530" t="n">
-        <v>939</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18811,9 +18593,7 @@
       <c r="I531" t="n">
         <v>949</v>
       </c>
-      <c r="J531" t="n">
-        <v>939</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,9 +18632,7 @@
       <c r="I532" t="n">
         <v>949</v>
       </c>
-      <c r="J532" t="n">
-        <v>939</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18893,9 +18671,7 @@
       <c r="I533" t="n">
         <v>948</v>
       </c>
-      <c r="J533" t="n">
-        <v>939</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18934,9 +18710,7 @@
       <c r="I534" t="n">
         <v>948</v>
       </c>
-      <c r="J534" t="n">
-        <v>939</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18975,9 +18749,7 @@
       <c r="I535" t="n">
         <v>948</v>
       </c>
-      <c r="J535" t="n">
-        <v>939</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19016,9 +18788,7 @@
       <c r="I536" t="n">
         <v>948</v>
       </c>
-      <c r="J536" t="n">
-        <v>939</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,9 +18827,7 @@
       <c r="I537" t="n">
         <v>948</v>
       </c>
-      <c r="J537" t="n">
-        <v>939</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19098,9 +18866,7 @@
       <c r="I538" t="n">
         <v>952</v>
       </c>
-      <c r="J538" t="n">
-        <v>939</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19139,9 +18905,7 @@
       <c r="I539" t="n">
         <v>950</v>
       </c>
-      <c r="J539" t="n">
-        <v>939</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19180,9 +18944,7 @@
       <c r="I540" t="n">
         <v>950</v>
       </c>
-      <c r="J540" t="n">
-        <v>939</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19221,9 +18983,7 @@
       <c r="I541" t="n">
         <v>956</v>
       </c>
-      <c r="J541" t="n">
-        <v>939</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19262,9 +19022,7 @@
       <c r="I542" t="n">
         <v>954</v>
       </c>
-      <c r="J542" t="n">
-        <v>939</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19303,9 +19061,7 @@
       <c r="I543" t="n">
         <v>954</v>
       </c>
-      <c r="J543" t="n">
-        <v>939</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19344,9 +19100,7 @@
       <c r="I544" t="n">
         <v>954</v>
       </c>
-      <c r="J544" t="n">
-        <v>939</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19385,9 +19139,7 @@
       <c r="I545" t="n">
         <v>954</v>
       </c>
-      <c r="J545" t="n">
-        <v>939</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,9 +19178,7 @@
       <c r="I546" t="n">
         <v>954</v>
       </c>
-      <c r="J546" t="n">
-        <v>939</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19467,9 +19217,7 @@
       <c r="I547" t="n">
         <v>954</v>
       </c>
-      <c r="J547" t="n">
-        <v>939</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
